--- a/Reports/heart/heart_multifairgan_100_1.xlsx
+++ b/Reports/heart/heart_multifairgan_100_1.xlsx
@@ -442,57 +442,57 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.2756</v>
+        <v>-0.1273</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.1239</v>
+        <v>-0.1273</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.7635</v>
+        <v>0.7809</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.1632</v>
+        <v>1.3732</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.1667</v>
+        <v>0.1624</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0</v>
+        <v>1.6833</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.2941</v>
+        <v>-0.1333</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.0212</v>
+        <v>0.1025</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0</v>
+        <v>0.0007</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.8348</v>
+        <v>0.6446</v>
       </c>
     </row>
     <row r="13">
